--- a/cow&gate_milk_formulas.xlsx
+++ b/cow&gate_milk_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yeshwanth\Desktop\uyyaala to kidsfud products\milk_formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188B400-768C-4287-9945-62F8CC907CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6C6289-4EE2-4A5A-A86A-D6BE35BBA7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
